--- a/Roles/admin/data.xlsx
+++ b/Roles/admin/data.xlsx
@@ -34,10 +34,10 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>3lSkE1K-</t>
-  </si>
-  <si>
-    <t>h3SD=5UT</t>
+    <t>]m|I7TFW</t>
+  </si>
+  <si>
+    <t>EJH2U#t6</t>
   </si>
   <si>
     <t>йцу</t>

--- a/Roles/admin/data.xlsx
+++ b/Roles/admin/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -34,16 +34,22 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>G7U%|5Ax</t>
-  </si>
-  <si>
-    <t>dfg</t>
+    <t>41BOz1t!</t>
+  </si>
+  <si>
+    <t>}E=rxN69</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,13 +441,33 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Roles/admin/data.xlsx
+++ b/Roles/admin/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ip</t>
   </si>
@@ -34,16 +34,19 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>41BOz1t!</t>
-  </si>
-  <si>
-    <t>}E=rxN69</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>312</t>
+    <t>wPMZ8g$F</t>
+  </si>
+  <si>
+    <t>R!T_B8Xv</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>wrqwr</t>
+  </si>
+  <si>
+    <t>213213123</t>
   </si>
   <si>
     <t>0</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +447,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,9 +467,30 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>R[Kn7#|</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Roles/admin/data.xlsx
+++ b/Roles/admin/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -34,25 +34,22 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>wPMZ8g$F</t>
-  </si>
-  <si>
-    <t>R!T_B8Xv</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>wrqwr</t>
-  </si>
-  <si>
-    <t>213213123</t>
+    <t>oK5.|q,f</t>
+  </si>
+  <si>
+    <t>b(/TB8JO</t>
+  </si>
+  <si>
+    <t>Проскурин</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +444,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,27 +467,6 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <f>R[Kn7#|</f>
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
